--- a/evaluation/results/hybrid/pca/isolation_forest/split_5/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/pca/isolation_forest/split_5/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.896797153024911</v>
+        <v>0.3256227758007118</v>
       </c>
       <c r="C2">
+        <v>0.0687960687960688</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.128735632183908</v>
+      </c>
+      <c r="F2">
+        <v>0.2697495183044316</v>
+      </c>
+      <c r="G2">
+        <v>0.6576332429990966</v>
+      </c>
+      <c r="H2">
+        <v>0.731474050294275</v>
+      </c>
+      <c r="I2">
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <v>379</v>
+      </c>
+      <c r="K2">
+        <v>155</v>
+      </c>
+      <c r="L2">
         <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0.4719101123595505</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>30</v>
-      </c>
-      <c r="K2">
-        <v>504</v>
-      </c>
-      <c r="L2">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9438202247191011</v>
+        <v>0.2902621722846442</v>
       </c>
       <c r="D2">
-        <v>0.9455909943714822</v>
+        <v>0.4499274310595066</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.0687960687960688</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.128735632183908</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.896797153024911</v>
+        <v>0.3256227758007118</v>
       </c>
       <c r="C4">
-        <v>0.896797153024911</v>
+        <v>0.3256227758007118</v>
       </c>
       <c r="D4">
-        <v>0.896797153024911</v>
+        <v>0.3256227758007118</v>
       </c>
       <c r="E4">
-        <v>0.896797153024911</v>
+        <v>0.3256227758007118</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.4736842105263158</v>
+        <v>0.5343980343980343</v>
       </c>
       <c r="C5">
-        <v>0.4719101123595505</v>
+        <v>0.6451310861423221</v>
       </c>
       <c r="D5">
-        <v>0.4727954971857411</v>
+        <v>0.2893315316217073</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9001685708934257</v>
+        <v>0.9536054980894838</v>
       </c>
       <c r="C6">
-        <v>0.896797153024911</v>
+        <v>0.3256227758007118</v>
       </c>
       <c r="D6">
-        <v>0.8984796992782411</v>
+        <v>0.4339249926813629</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>504</v>
+        <v>155</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>28</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
